--- a/outputs-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-r202/f__Anaerovoracaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -881,6 +886,11 @@
           <t>g__Eubacterium_A</t>
         </is>
       </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1052,6 +1062,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>g__RUG099</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1223,6 +1238,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>g__RUG099(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1394,6 +1414,11 @@
           <t>g__Mobilibacterium</t>
         </is>
       </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>g__Mobilibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1565,6 +1590,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>g__RUG099</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1736,6 +1766,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>g__RUG099</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1907,6 +1942,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>g__RUG099</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2078,6 +2118,11 @@
           <t>g__RUG708</t>
         </is>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>g__RUG708</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2249,6 +2294,11 @@
           <t>g__RUG099</t>
         </is>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>g__RUG099</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2418,6 +2468,11 @@
       <c r="BC11" t="inlineStr">
         <is>
           <t>g__UBA1191</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>g__UBA1191(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-r202/f__Anaerovoracaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,343 +719,343 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG067.fasta</t>
+          <t>RUG099.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.532413565058316e-10</v>
+        <v>1.220430485081516e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004832015646204744</v>
+        <v>0.01464040777168661</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.522316818327189e-10</v>
+        <v>1.535772723663185e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9247591856303023</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>8.696170732088115e-09</v>
+        <v>1.887363486996396e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.966042129861902e-06</v>
+        <v>0.9666591539320722</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>0.01856465238861284</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.07040513098724746</v>
+        <v>7.287359391318524e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.573229325851234e-07</v>
+        <v>4.188133576175662e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.427317009945937e-08</v>
+        <v>2.606618056034492e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.954365868047032e-10</v>
+        <v>1.846201054330026e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.220175745506502e-14</v>
+        <v>2.220335571691455e-14</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.9247591856303023</v>
+        <v>0.9666591539320722</v>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>g__Eubacterium_A</t>
+          <t>g__RUG099</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>g__Eubacterium_A</t>
+          <t>g__RUG099</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG099.fasta</t>
+          <t>RUG114.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="C3" t="n">
-        <v>3.844554368649646e-06</v>
+        <v>0.0105139135287144</v>
       </c>
       <c r="D3" t="n">
-        <v>2.603076864559925e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02201706957119206</v>
+        <v>0.2256457296798901</v>
       </c>
       <c r="F3" t="n">
-        <v>2.603076864559926e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.603076864559927e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001762138138444451</v>
+        <v>0.02282757455134956</v>
       </c>
       <c r="I3" t="n">
-        <v>2.603076864559926e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>2.603076864559923e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148367e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>2.603076864559926e-14</v>
+        <v>2.320113530148365e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>6.881070999156669e-13</v>
+        <v>2.502813109802189e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>2.603076864559928e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.603076864559927e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="U3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>2.603076864559927e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9695643758167513</v>
+        <v>0.6864241186167732</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.603076864559927e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.603076864559924e-14</v>
+        <v>2.320113530148368e-12</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.603076864559941e-14</v>
+        <v>2.320113530148358e-12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.00814944550982444</v>
+        <v>0.01780545585554086</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.603076864559937e-14</v>
+        <v>2.320113530148358e-12</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.096265357900013e-05</v>
+        <v>0.02688400044521863</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.553628767718724e-06</v>
+        <v>0.005962953532326553</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148357e-12</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148362e-12</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.534449866106727e-06</v>
+        <v>0.003936228662289816</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148356e-12</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148356e-12</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148356e-12</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148356e-12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.60307686455994e-14</v>
+        <v>2.320113530148356e-12</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.603076864559937e-14</v>
+        <v>2.320113530148355e-12</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.9695643758167513</v>
+        <v>0.6864241186167732</v>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
@@ -1064,174 +1064,174 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>g__RUG099</t>
+          <t>g__RUG099(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG114.fasta</t>
+          <t>RUG321.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1064585835962857</v>
+        <v>6.255962916752622e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2525583868921156</v>
+        <v>0.04861448075298469</v>
       </c>
       <c r="F4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006275016918173495</v>
+        <v>2.428464160306537e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="N4" t="n">
-        <v>4.715796956820831e-08</v>
+        <v>7.034104538490364e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="R4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225972e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="V4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225977e-13</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5108129484208306</v>
+        <v>0.948753906922029</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225977e-13</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.625869956612081e-12</v>
+        <v>1.066547301225973e-13</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225974e-13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05484787936792632</v>
+        <v>0.002004250089368497</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.625869956612084e-12</v>
+        <v>1.066547301225969e-13</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.04717196603842009</v>
+        <v>0.0005172223228305545</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01596988902278363</v>
+        <v>5.794609929936881e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.625869956612083e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.005905282515582584</v>
+        <v>2.165250097031134e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225971e-13</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.625869956612082e-12</v>
+        <v>1.066547301225968e-13</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.5108129484208306</v>
+        <v>0.948753906922029</v>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
@@ -1240,350 +1240,350 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>g__RUG099(reject)</t>
+          <t>g__RUG099</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG119.fasta</t>
+          <t>RUG349.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003066896665016687</v>
+        <v>3.368997829558026e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008432447272693275</v>
+        <v>0.01473521193545586</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.773488523132861e-05</v>
+        <v>0.001629624824265918</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>4.952234033646754e-11</v>
+        <v>7.801192103236533e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>0.976923452863278</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.91917312210354e-05</v>
+        <v>0.8437051678599262</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01276231913517885</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.075378248831784e-07</v>
+        <v>0.1395565401321985</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001126467905403826</v>
+        <v>0.0002907165228631097</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.013846860518346e-05</v>
+        <v>1.273820966828466e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0003610504836292316</v>
+        <v>3.631052857062048e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.220391889949392e-14</v>
+        <v>2.220450383633948e-14</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.976923452863278</v>
+        <v>0.8437051678599262</v>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>g__Mobilibacterium</t>
+          <t>g__RUG099</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>g__Mobilibacterium</t>
+          <t>g__RUG099</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG321.fasta</t>
+          <t>RUG576.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.627865166100713e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.370950939481057e-06</v>
+        <v>0.0008981637674151752</v>
       </c>
       <c r="D6" t="n">
-        <v>3.627865166100713e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0874309442341699</v>
+        <v>0.01494024450123158</v>
       </c>
       <c r="F6" t="n">
-        <v>3.627865166100718e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>3.627865166100714e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>6.459769100474509e-06</v>
+        <v>0.003966346401944311</v>
       </c>
       <c r="I6" t="n">
-        <v>3.627865166100714e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>3.627865166100714e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>3.200907292407357e-08</v>
+        <v>1.131217626593011e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>3.627865166100717e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9102277824649708</v>
+        <v>0.9615630812309075</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.627865166100708e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.627865166100711e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0008071479669688051</v>
+        <v>0.01811733623515131</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.627865166100711e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.001271193278947673</v>
+        <v>0.0004668528854193292</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0002289752367729401</v>
+        <v>1.602333779405603e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.509407345599557e-05</v>
+        <v>3.195163906893327e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.627865166100706e-13</v>
+        <v>2.220398635154064e-14</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.9102277824649708</v>
+        <v>0.9615630812309075</v>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
@@ -1599,343 +1599,343 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG349.fasta</t>
+          <t>RUG708.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="C7" t="n">
-        <v>4.10441096915316e-05</v>
+        <v>0.01772173666363798</v>
       </c>
       <c r="D7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399452e-13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03129749501324761</v>
+        <v>0.1275521011022734</v>
       </c>
       <c r="F7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001699628229506659</v>
+        <v>0.2717086375969169</v>
       </c>
       <c r="I7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399445e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399451e-13</v>
       </c>
       <c r="L7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399451e-13</v>
       </c>
       <c r="M7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399451e-13</v>
       </c>
       <c r="N7" t="n">
-        <v>3.234872920509558e-11</v>
+        <v>2.106496803082897e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="R7" t="n">
-        <v>3.734943313827217e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="U7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="V7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8596159754479491</v>
+        <v>0.1369899109168629</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>0.1184215688158871</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.49991275839945e-13</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1067140583415624</v>
+        <v>0.3166532100020334</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.734943313827226e-14</v>
+        <v>2.499912758399447e-13</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0005381605225920392</v>
+        <v>0.003589073706251038</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.469514803850291e-05</v>
+        <v>0.006571076035352888</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399449e-13</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.499912758399448e-13</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.894315345870613e-05</v>
+        <v>0.0007924745006039914</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.73494331382722e-14</v>
+        <v>2.499912758399495e-13</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399496e-13</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399496e-13</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399496e-13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399496e-13</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.734943313827222e-14</v>
+        <v>2.499912758399495e-13</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.8596159754479491</v>
+        <v>0.3166532100020334</v>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>g__RUG099</t>
+          <t>g__UBA1191</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>g__RUG099</t>
+          <t>g__UBA1191(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG576.fasta</t>
+          <t>RUG792.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511652e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>5.595532926221671e-05</v>
+        <v>1.828062667041493e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511641e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01996181012133436</v>
+        <v>0.0347253608152904</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511641e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251164e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007025581957381328</v>
+        <v>2.551222340563499e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251164e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251164e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.451115924879585e-12</v>
+        <v>1.140041049334928e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9765114591904556</v>
+        <v>0.9625236219101154</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511632e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511644e-14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.002560995489937901</v>
+        <v>0.002489197875861086</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251166e-14</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0001774022019062256</v>
+        <v>0.0002093762509215334</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.658002123270764e-05</v>
+        <v>1.667410454968051e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251165e-14</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251165e-14</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.323944572733736e-05</v>
+        <v>8.428640715858759e-06</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.74439174251166e-14</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.220265641288758e-14</v>
+        <v>5.744391742511661e-14</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.9765114591904556</v>
+        <v>0.9625236219101154</v>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
@@ -1945,534 +1945,6 @@
       <c r="BD8" t="inlineStr">
         <is>
           <t>g__RUG099</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG708.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.271323115580107e-05</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.008099061339899273</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0008913551167031733</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.417795440163258e-07</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.04096211727312408</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.9470995659400993</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.002814031424760341</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>5.733453357294753e-05</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>4.729980826420433e-05</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1.637955194425808e-05</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2.22038452542189e-14</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.9470995659400993</v>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>g__RUG708</t>
-        </is>
-      </c>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>g__RUG708</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG792.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.616844353263635e-14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.458084389341258e-07</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.616844353263613e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03527765991563441</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.616844353263611e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.616844353263601e-14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.871855403506835e-06</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.616844353263601e-14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.616844353263601e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.616844353263642e-14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.616844353263642e-14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.616844353263626e-14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.102468134961753e-09</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.616844353263613e-14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.616844353263626e-14</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6.616844353263626e-14</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6.616844353263626e-14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.616844353263616e-14</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.9641748990647553</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.616844353263616e-14</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.616844353263596e-14</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6.616844353263628e-14</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.000373273568681787</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>6.616844353263616e-14</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.0001527116050725419</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1.655164251795877e-05</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>6.61684435326362e-14</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>6.616844353263616e-14</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1.884434182111727e-06</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>6.616844353263643e-14</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.616844353263644e-14</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6.616844353263644e-14</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>6.616844353263644e-14</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>6.616844353263644e-14</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>6.616844353263644e-14</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.9641748990647553</v>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>g__RUG099</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>g__RUG099</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>hRUG874.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001425156971215573</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1884332389927028</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.055962209802384e-13</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.003086340534088179</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.055962209802385e-13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.159730925356418e-08</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5.055962209802379e-13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.055962209802379e-13</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5.055962209802379e-13</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5.055962209802379e-13</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="U11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.01470306823123686</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.1814478239728819</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>5.055962209802381e-13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.6083407941782275</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.002903275955341662</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>8.922316135058764e-05</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0.0008537076585041961</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>5.055962209802367e-13</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0.6083407941782275</v>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>g__UBA1191</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>g__UBA1191(reject)</t>
         </is>
       </c>
     </row>
